--- a/logs/test2_success rate.xlsx
+++ b/logs/test2_success rate.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="test2_rate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>map</t>
   </si>
@@ -61,11 +61,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mts0(441)</t>
+    <t>mts0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mts9(613)</t>
+    <t>mts9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed-up</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstraction(1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -662,11 +670,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +817,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -824,55 +836,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test2_rate!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -884,36 +893,35 @@
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -930,55 +938,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test2_rate!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -990,36 +995,35 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1036,55 +1040,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test2_rate!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1096,36 +1097,35 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1142,55 +1142,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test2_rate!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1202,36 +1199,35 @@
                   <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1241,12 +1237,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-281104496"/>
-        <c:axId val="-281105040"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="1969727824"/>
+        <c:axId val="1969722384"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-281104496"/>
+        <c:axId val="1969727824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-281105040"/>
+        <c:crossAx val="1969722384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-281105040"/>
+        <c:axId val="1969722384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-281104496"/>
+        <c:crossAx val="1969727824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,8 +1485,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.11886426137031381"/>
           <c:y val="0.91164885085114544"/>
-          <c:w val="0.77659983546832767"/>
-          <c:h val="6.2357503819485252E-2"/>
+          <c:w val="0.72565612880479491"/>
+          <c:h val="6.7726247389705563E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2119,16 +2115,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2413,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2442,8 +2438,8 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>441</v>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>0.78</v>
@@ -2460,79 +2456,79 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>-613</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="1">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="E3" s="1">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="1">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>772</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="D4" s="1">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="1">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="F4" s="1">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1031</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="1">
-        <v>0.77</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="F5" s="1">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1318</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>0.69</v>
+        <v>0.36</v>
       </c>
       <c r="D6" s="1">
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6" s="1">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="F6" s="1">
         <v>0.27</v>
@@ -2540,30 +2536,30 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1338</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="E7" s="1">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="F7" s="1">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>1345</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>0.87</v>
@@ -2580,70 +2576,149 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1378</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="D9" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="E9" s="1">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="F9" s="1">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1390</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D10" s="1">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E10" s="1">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F10" s="1">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>772</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0.43900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1378</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>1494</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.18</v>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F11">
-    <sortCondition ref="B2:B11"/>
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>